--- a/Assignment2Robot/mapFailure.xlsx
+++ b/Assignment2Robot/mapFailure.xlsx
@@ -3579,16 +3579,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>37575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>84976</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>399525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3603,16 +3603,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect b="26872"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7419975" y="0"/>
-          <a:ext cx="4200000" cy="5990476"/>
+          <a:off x="7172325" y="247649"/>
+          <a:ext cx="4200000" cy="4380751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3923,8 +3922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
